--- a/biology/Botanique/Corallina_officinalis/Corallina_officinalis.xlsx
+++ b/biology/Botanique/Corallina_officinalis/Corallina_officinalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corallina officinalis, la Coralline officinale, est une espèce d'algue rouge de la famille des Corallinaceae.
 Cette espèce se trouve principalement sur les pourtours des flaques de marée, mais aussi dans des crevasses sur le reste de l'estran rocheux. Généralement en bas d'estran, où les algues de type Fucus sont absentes, sur les côtes exposées on la retrouve jusqu'en haut de marée.
@@ -513,11 +525,13 @@
           <t>Liste des variétés et formes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (5 mars 2016)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (5 mars 2016) :
 variété Corallina officinalis var. chilensis
-Selon World Register of Marine Species                               (5 mars 2016)[3] :
+Selon World Register of Marine Species                               (5 mars 2016) :
 variété Corallina officinalis var. chilensis (Decaisne) Kützing, 1858
 variété Corallina officinalis var. paltonophora Kützing
 forme Corallina officinalis f. flexilis Kjellman, 1883</t>
